--- a/Prompt_Placement_Results.xlsx
+++ b/Prompt_Placement_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidgaofc/SWE_AI/instruction-placement-experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5637AE14-2CFE-D745-B34B-63C68653A177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401282A-9E74-984F-9896-F05F1C8112A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17360" xr2:uid="{F9EE8F96-603F-8246-852B-E3D6EAFD29E1}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{F9EE8F96-603F-8246-852B-E3D6EAFD29E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,6 +682,9 @@
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
       <c r="C9">
         <v>9</v>
       </c>
@@ -691,6 +694,9 @@
       <c r="F9" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -700,6 +706,9 @@
       <c r="K9" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
       <c r="M9">
         <v>4</v>
       </c>
@@ -708,6 +717,9 @@
       </c>
       <c r="P9" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -720,6 +732,9 @@
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
       <c r="C10">
         <v>9</v>
       </c>
@@ -729,6 +744,9 @@
       <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
       <c r="H10">
         <v>12</v>
       </c>
@@ -738,6 +756,9 @@
       <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
       <c r="M10">
         <v>4</v>
       </c>
@@ -746,6 +767,9 @@
       </c>
       <c r="P10" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
       </c>
       <c r="R10">
         <v>8</v>
@@ -758,6 +782,9 @@
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
       <c r="C11">
         <v>6</v>
       </c>
@@ -767,6 +794,9 @@
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
       <c r="H11">
         <v>1</v>
       </c>
@@ -776,6 +806,9 @@
       <c r="K11" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
       <c r="M11">
         <v>4</v>
       </c>
@@ -784,6 +817,9 @@
       </c>
       <c r="P11" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
       </c>
       <c r="R11">
         <v>8</v>
@@ -796,6 +832,9 @@
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
       <c r="C12">
         <v>7</v>
       </c>
@@ -805,6 +844,9 @@
       <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -814,6 +856,9 @@
       <c r="K12" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
       <c r="M12">
         <v>4</v>
       </c>
@@ -823,6 +868,9 @@
       <c r="P12" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
       <c r="R12">
         <v>8</v>
       </c>
@@ -834,6 +882,9 @@
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
       <c r="C13">
         <v>6</v>
       </c>
@@ -843,6 +894,9 @@
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
       <c r="H13">
         <v>12</v>
       </c>
@@ -852,6 +906,9 @@
       <c r="K13" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
       <c r="M13">
         <v>4</v>
       </c>
@@ -860,6 +917,9 @@
       </c>
       <c r="P13" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
       </c>
       <c r="R13">
         <v>8</v>
@@ -922,6 +982,9 @@
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B16">
+        <v>210</v>
+      </c>
       <c r="C16">
         <v>281</v>
       </c>
@@ -931,6 +994,9 @@
       <c r="F16" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G16">
+        <v>213</v>
+      </c>
       <c r="H16">
         <v>350</v>
       </c>
@@ -940,6 +1006,9 @@
       <c r="K16" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L16">
+        <v>137</v>
+      </c>
       <c r="M16">
         <v>655</v>
       </c>
@@ -948,6 +1017,9 @@
       </c>
       <c r="P16" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>503</v>
       </c>
       <c r="R16">
         <v>406</v>
@@ -960,6 +1032,9 @@
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B17">
+        <v>305</v>
+      </c>
       <c r="C17">
         <v>265</v>
       </c>
@@ -969,6 +1044,9 @@
       <c r="F17" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G17">
+        <v>560</v>
+      </c>
       <c r="H17">
         <v>277</v>
       </c>
@@ -978,6 +1056,9 @@
       <c r="K17" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="L17">
+        <v>208</v>
+      </c>
       <c r="M17">
         <v>374</v>
       </c>
@@ -986,6 +1067,9 @@
       </c>
       <c r="P17" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>200</v>
       </c>
       <c r="R17">
         <v>184</v>
@@ -998,6 +1082,9 @@
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B18">
+        <v>335</v>
+      </c>
       <c r="C18">
         <v>364</v>
       </c>
@@ -1007,6 +1094,9 @@
       <c r="F18" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="G18">
+        <v>285</v>
+      </c>
       <c r="H18">
         <v>139</v>
       </c>
@@ -1016,6 +1106,9 @@
       <c r="K18" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="L18">
+        <v>398</v>
+      </c>
       <c r="M18">
         <v>374</v>
       </c>
@@ -1024,6 +1117,9 @@
       </c>
       <c r="P18" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>904</v>
       </c>
       <c r="R18">
         <v>721</v>
@@ -1036,6 +1132,9 @@
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B19">
+        <v>495</v>
+      </c>
       <c r="C19">
         <v>276</v>
       </c>
@@ -1045,6 +1144,9 @@
       <c r="F19" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="G19">
+        <v>605</v>
+      </c>
       <c r="H19">
         <v>215</v>
       </c>
@@ -1054,6 +1156,9 @@
       <c r="K19" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="L19">
+        <v>138</v>
+      </c>
       <c r="M19">
         <v>374</v>
       </c>
@@ -1063,6 +1168,9 @@
       <c r="P19" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="Q19">
+        <v>293</v>
+      </c>
       <c r="R19">
         <v>228</v>
       </c>
@@ -1074,6 +1182,9 @@
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B20">
+        <v>337</v>
+      </c>
       <c r="C20">
         <v>370</v>
       </c>
@@ -1083,6 +1194,9 @@
       <c r="F20" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G20">
+        <v>274</v>
+      </c>
       <c r="H20">
         <v>274</v>
       </c>
@@ -1092,6 +1206,9 @@
       <c r="K20" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="L20">
+        <v>204</v>
+      </c>
       <c r="M20">
         <v>414</v>
       </c>
@@ -1100,6 +1217,9 @@
       </c>
       <c r="P20" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>248</v>
       </c>
       <c r="R20">
         <v>414</v>

--- a/Prompt_Placement_Results.xlsx
+++ b/Prompt_Placement_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidgaofc/SWE_AI/instruction-placement-experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401282A-9E74-984F-9896-F05F1C8112A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B1C7D4-80A1-D644-A358-E10C704338D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{F9EE8F96-603F-8246-852B-E3D6EAFD29E1}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,70 +562,250 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
       <c r="P2" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
       <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
       <c r="P3" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
       <c r="P4" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
       <c r="P5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
       <c r="K6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
       <c r="P6" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">

--- a/Prompt_Placement_Results.xlsx
+++ b/Prompt_Placement_Results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidgaofc/SWE_AI/instruction-placement-experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B1C7D4-80A1-D644-A358-E10C704338D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A78EF9-669B-C249-90FF-7272D3593324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{F9EE8F96-603F-8246-852B-E3D6EAFD29E1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{F9EE8F96-603F-8246-852B-E3D6EAFD29E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,10 +135,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -494,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD74C1A2-6273-CE4F-8AD9-12F5EA6C931A}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,7 +514,7 @@
     <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -558,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,8 +613,12 @@
       <c r="S2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <f>SUM(B2:D2)+SUM(G2:I2)+SUM(L2:N2)+SUM(Q2:S2)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -657,8 +667,12 @@
       <c r="S3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <f t="shared" ref="T3:T7" si="0">SUM(B3:D3)+SUM(G3:I3)+SUM(L3:N3)+SUM(Q3:S3)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -707,8 +721,12 @@
       <c r="S4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -757,8 +775,12 @@
       <c r="S5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -807,653 +829,736 @@
       <c r="S6">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:S7" si="1">SUM(C2:C6)</f>
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="N12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9">
-        <v>6</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>12</v>
-      </c>
-      <c r="R9">
-        <v>8</v>
-      </c>
-      <c r="S9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>12</v>
-      </c>
-      <c r="I10">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-      <c r="R10">
-        <v>8</v>
-      </c>
-      <c r="S10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>13</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-      <c r="R11">
-        <v>8</v>
-      </c>
-      <c r="S11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>12</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>6</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>6</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12">
-        <v>8</v>
-      </c>
-      <c r="R12">
-        <v>8</v>
-      </c>
-      <c r="S12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
         <v>18</v>
       </c>
-      <c r="H13">
+      <c r="K14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>8</v>
+      </c>
+      <c r="S15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16">
         <v>12</v>
       </c>
-      <c r="I13">
-        <v>22</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <v>6</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>10</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13">
-        <v>8</v>
-      </c>
-      <c r="R13">
-        <v>8</v>
-      </c>
-      <c r="S13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>210</v>
-      </c>
-      <c r="C16">
-        <v>281</v>
-      </c>
-      <c r="D16">
-        <v>294</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>213</v>
-      </c>
       <c r="H16">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>470</v>
+        <v>12</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>655</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>396</v>
+        <v>6</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>503</v>
+        <v>8</v>
       </c>
       <c r="R16">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="S16">
-        <v>290</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>22</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+      <c r="R17">
+        <v>8</v>
+      </c>
+      <c r="S17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>210</v>
+      </c>
+      <c r="C24">
+        <v>281</v>
+      </c>
+      <c r="D24">
+        <v>294</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>213</v>
+      </c>
+      <c r="H24">
+        <v>350</v>
+      </c>
+      <c r="I24">
+        <v>470</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>137</v>
+      </c>
+      <c r="M24">
+        <v>655</v>
+      </c>
+      <c r="N24">
+        <v>396</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>503</v>
+      </c>
+      <c r="R24">
+        <v>406</v>
+      </c>
+      <c r="S24">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
         <v>305</v>
       </c>
-      <c r="C17">
+      <c r="C25">
         <v>265</v>
       </c>
-      <c r="D17">
+      <c r="D25">
         <v>394</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="F25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>560</v>
       </c>
-      <c r="H17">
+      <c r="H25">
         <v>277</v>
       </c>
-      <c r="I17">
+      <c r="I25">
         <v>328</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17">
+      <c r="K25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>208</v>
       </c>
-      <c r="M17">
+      <c r="M25">
         <v>374</v>
       </c>
-      <c r="N17">
+      <c r="N25">
         <v>186</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17">
+      <c r="P25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25">
         <v>200</v>
       </c>
-      <c r="R17">
+      <c r="R25">
         <v>184</v>
       </c>
-      <c r="S17">
+      <c r="S25">
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B26">
         <v>335</v>
       </c>
-      <c r="C18">
+      <c r="C26">
         <v>364</v>
       </c>
-      <c r="D18">
+      <c r="D26">
         <v>229</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G18">
+      <c r="G26">
         <v>285</v>
       </c>
-      <c r="H18">
+      <c r="H26">
         <v>139</v>
       </c>
-      <c r="I18">
+      <c r="I26">
         <v>583</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L18">
+      <c r="L26">
         <v>398</v>
       </c>
-      <c r="M18">
+      <c r="M26">
         <v>374</v>
       </c>
-      <c r="N18">
+      <c r="N26">
         <v>156</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q18">
+      <c r="Q26">
         <v>904</v>
       </c>
-      <c r="R18">
+      <c r="R26">
         <v>721</v>
       </c>
-      <c r="S18">
+      <c r="S26">
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="B27">
         <v>495</v>
       </c>
-      <c r="C19">
+      <c r="C27">
         <v>276</v>
       </c>
-      <c r="D19">
+      <c r="D27">
         <v>325</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G19">
+      <c r="G27">
         <v>605</v>
       </c>
-      <c r="H19">
+      <c r="H27">
         <v>215</v>
       </c>
-      <c r="I19">
+      <c r="I27">
         <v>422</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L19">
+      <c r="L27">
         <v>138</v>
       </c>
-      <c r="M19">
+      <c r="M27">
         <v>374</v>
       </c>
-      <c r="N19">
+      <c r="N27">
         <v>228</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q19">
+      <c r="Q27">
         <v>293</v>
       </c>
-      <c r="R19">
+      <c r="R27">
         <v>228</v>
       </c>
-      <c r="S19">
+      <c r="S27">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
         <v>337</v>
       </c>
-      <c r="C20">
+      <c r="C28">
         <v>370</v>
       </c>
-      <c r="D20">
+      <c r="D28">
         <v>530</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20">
+      <c r="F28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
         <v>274</v>
       </c>
-      <c r="H20">
+      <c r="H28">
         <v>274</v>
       </c>
-      <c r="I20">
+      <c r="I28">
         <v>562</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20">
+      <c r="K28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28">
         <v>204</v>
       </c>
-      <c r="M20">
+      <c r="M28">
         <v>414</v>
       </c>
-      <c r="N20">
+      <c r="N28">
         <v>438</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20">
+      <c r="P28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q28">
         <v>248</v>
       </c>
-      <c r="R20">
+      <c r="R28">
         <v>414</v>
       </c>
-      <c r="S20">
+      <c r="S28">
         <v>407</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>23</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>